--- a/Source Workbooks/ESL4 excel example.xlsx
+++ b/Source Workbooks/ESL4 excel example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Desktop\Writing\ESLexercise.com\Source Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418E4F63-B2C1-44BB-9D9D-2DCD34EFC9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8C1AC6-71BD-44D4-8573-43304074BBAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="156" windowWidth="18192" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>What word is missing?</t>
   </si>
@@ -350,6 +350,15 @@
   </si>
   <si>
     <t>I have</t>
+  </si>
+  <si>
+    <t>was not</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>that I</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1626,7 +1635,9 @@
       <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1913,11 +1924,11 @@
       </c>
       <c r="F21" s="13" t="str">
         <f>IF(D21&lt;&gt;"",IF(OR(D21=D22,D21=C22),"Correct!","Please try again"),"")</f>
-        <v>Please try again</v>
+        <v>Correct!</v>
       </c>
       <c r="G21" s="30">
         <f>IF(F22&lt;&gt;0,100*SUM(F$4:F22)/SUM(E$4:E22),"")</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>59</v>
@@ -1928,7 +1939,9 @@
       <c r="B22" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="D22" s="6" t="s">
         <v>39</v>
       </c>
@@ -1936,9 +1949,9 @@
         <f>IF(D21&lt;&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="39" t="str">
+      <c r="F22" s="39">
         <f>IF(AND(E22&lt;&gt;0,F21="Correct!"),1," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="27"/>
@@ -1967,7 +1980,7 @@
       </c>
       <c r="G23" s="30">
         <f>IF(F24&lt;&gt;0,100*SUM(F$4:F24)/SUM(E$4:E24),"")</f>
-        <v>54.545454545454547</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>59</v>
@@ -2017,7 +2030,7 @@
       </c>
       <c r="G25" s="30">
         <f>IF(F26&lt;&gt;0,100*SUM(F$4:F26)/SUM(E$4:E26),"")</f>
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>59</v>
@@ -2067,7 +2080,7 @@
       </c>
       <c r="G27" s="30">
         <f>IF(F28&lt;&gt;0,100*SUM(F$4:F28)/SUM(E$4:E28),"")</f>
-        <v>53.846153846153847</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>59</v>
@@ -2119,7 +2132,7 @@
       </c>
       <c r="G29" s="30">
         <f>IF(F30&lt;&gt;0,100*SUM(F$4:F30)/SUM(E$4:E30),"")</f>
-        <v>57.142857142857146</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>59</v>
@@ -2169,7 +2182,7 @@
       </c>
       <c r="G31" s="30">
         <f>IF(F32&lt;&gt;0,100*SUM(F$4:F32)/SUM(E$4:E32),"")</f>
-        <v>60</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>59</v>
@@ -2221,7 +2234,7 @@
       </c>
       <c r="G33" s="30">
         <f>IF(F34&lt;&gt;0,100*SUM(F$4:F34)/SUM(E$4:E34),"")</f>
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>59</v>
@@ -2232,7 +2245,9 @@
       <c r="B34" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="39"/>
+      <c r="C34" s="39" t="s">
+        <v>109</v>
+      </c>
       <c r="D34" s="6" t="s">
         <v>67</v>
       </c>
@@ -2271,7 +2286,7 @@
       </c>
       <c r="G35" s="30">
         <f>IF(F36&lt;&gt;0,100*SUM(F$4:F36)/SUM(E$4:E36),"")</f>
-        <v>64.705882352941174</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>59</v>
@@ -2321,7 +2336,7 @@
       </c>
       <c r="G37" s="30">
         <f>IF(F38&lt;&gt;0,100*SUM(F$4:F38)/SUM(E$4:E38),"")</f>
-        <v>61.111111111111114</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>59</v>
@@ -2371,7 +2386,7 @@
       </c>
       <c r="G39" s="30">
         <f>IF(F40&lt;&gt;0,100*SUM(F$4:F40)/SUM(E$4:E40),"")</f>
-        <v>57.89473684210526</v>
+        <v>63.157894736842103</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>59</v>
@@ -2419,7 +2434,7 @@
       </c>
       <c r="G41" s="30">
         <f>IF(F42&lt;&gt;0,100*SUM(F$4:F42)/SUM(E$4:E42),"")</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H41" s="31" t="s">
         <v>59</v>
@@ -2469,7 +2484,7 @@
       </c>
       <c r="G43" s="30">
         <f>IF(F44&lt;&gt;0,100*SUM(F$4:F44)/SUM(E$4:E44),"")</f>
-        <v>61.904761904761905</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>59</v>
@@ -2519,7 +2534,7 @@
       </c>
       <c r="G45" s="30">
         <f>IF(F46&lt;&gt;0,100*SUM(F$4:F46)/SUM(E$4:E46),"")</f>
-        <v>63.636363636363633</v>
+        <v>68.181818181818187</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>59</v>
@@ -2569,7 +2584,7 @@
       </c>
       <c r="G47" s="30">
         <f>IF(F48&lt;&gt;0,100*SUM(F$4:F48)/SUM(E$4:E48),"")</f>
-        <v>60.869565217391305</v>
+        <v>65.217391304347828</v>
       </c>
       <c r="H47" s="31" t="s">
         <v>59</v>
@@ -2617,7 +2632,7 @@
       </c>
       <c r="G49" s="30">
         <f>IF(F50&lt;&gt;0,100*SUM(F$4:F50)/SUM(E$4:E50),"")</f>
-        <v>58.333333333333336</v>
+        <v>62.5</v>
       </c>
       <c r="H49" s="31" t="s">
         <v>59</v>
@@ -2667,7 +2682,7 @@
       </c>
       <c r="G51" s="30">
         <f>IF(F52&lt;&gt;0,100*SUM(F$4:F52)/SUM(E$4:E52),"")</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H51" s="31" t="s">
         <v>59</v>
@@ -2679,7 +2694,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>50</v>
